--- a/data_ingest/ipeds/dictionaries/effy2022.xlsx
+++ b/data_ingest/ipeds/dictionaries/effy2022.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhie\OneDrive - Northeastern University\ALY6980\ipedsllm\data_ingest\ipeds\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10476F4C-0C10-40DE-A6A9-3215056BB129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D0D69E-CE39-4838-BB94-AD950E17C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
     <sheet name="varlist" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Description" sheetId="2" r:id="rId4"/>
-    <sheet name="Frequencies" sheetId="3" r:id="rId5"/>
-    <sheet name="Statistics" sheetId="4" r:id="rId6"/>
-    <sheet name="Imputation values" sheetId="7" r:id="rId7"/>
+    <sheet name="Description" sheetId="2" r:id="rId3"/>
+    <sheet name="Frequencies" sheetId="3" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId5"/>
+    <sheet name="Imputation values" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Frequencies!$A$1:$F$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$A$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Frequencies!$A$1:$F$35</definedName>
     <definedName name="Description">Description!$A$1:$C$39</definedName>
     <definedName name="Frequencies">Frequencies!$A$1:$F$35</definedName>
     <definedName name="FrequenciesRV">#REF!</definedName>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="227">
   <si>
     <t>varnumber</t>
   </si>
@@ -114,502 +112,205 @@
     <t>EFYTOTLT</t>
   </si>
   <si>
-    <t>XEYTOTLT</t>
-  </si>
-  <si>
     <t>Grand total</t>
   </si>
   <si>
     <t>EFYTOTLM</t>
   </si>
   <si>
-    <t>XEYTOTLM</t>
-  </si>
-  <si>
     <t>Grand total men</t>
   </si>
   <si>
     <t>EFYTOTLW</t>
   </si>
   <si>
-    <t>XEYTOTLW</t>
-  </si>
-  <si>
     <t>Grand total women</t>
   </si>
   <si>
     <t>EFYAIANT</t>
   </si>
   <si>
-    <t>XEFYAIAT</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native total</t>
   </si>
   <si>
     <t>EFYAIANM</t>
   </si>
   <si>
-    <t>XEFYAIAM</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native men</t>
   </si>
   <si>
     <t>EFYAIANW</t>
   </si>
   <si>
-    <t>XEFYAIAW</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native women</t>
   </si>
   <si>
     <t>EFYASIAT</t>
   </si>
   <si>
-    <t>XEFYASIT</t>
-  </si>
-  <si>
     <t>Asian total</t>
   </si>
   <si>
     <t>EFYASIAM</t>
   </si>
   <si>
-    <t>XEFYASIM</t>
-  </si>
-  <si>
     <t>Asian men</t>
   </si>
   <si>
     <t>EFYASIAW</t>
   </si>
   <si>
-    <t>XEFYASIW</t>
-  </si>
-  <si>
     <t>Asian women</t>
   </si>
   <si>
     <t>EFYBKAAT</t>
   </si>
   <si>
-    <t>XEFYBKAT</t>
-  </si>
-  <si>
     <t>Black or African American total</t>
   </si>
   <si>
     <t>EFYBKAAM</t>
   </si>
   <si>
-    <t>XEFYBKAM</t>
-  </si>
-  <si>
     <t>Black or African American men</t>
   </si>
   <si>
     <t>EFYBKAAW</t>
   </si>
   <si>
-    <t>XEFYBKAW</t>
-  </si>
-  <si>
     <t>Black or African American women</t>
   </si>
   <si>
     <t>EFYHISPT</t>
   </si>
   <si>
-    <t>XEFYHIST</t>
-  </si>
-  <si>
     <t>Hispanic or Latino total</t>
   </si>
   <si>
     <t>EFYHISPM</t>
   </si>
   <si>
-    <t>XEFYHISM</t>
-  </si>
-  <si>
     <t>Hispanic or Latino men</t>
   </si>
   <si>
     <t>EFYHISPW</t>
   </si>
   <si>
-    <t>XEFYHISW</t>
-  </si>
-  <si>
     <t>Hispanic or Latino women</t>
   </si>
   <si>
     <t>EFYNHPIT</t>
   </si>
   <si>
-    <t>XEFYNHPT</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander total</t>
   </si>
   <si>
     <t>EFYNHPIM</t>
   </si>
   <si>
-    <t>XEFYNHPM</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander men</t>
   </si>
   <si>
     <t>EFYNHPIW</t>
   </si>
   <si>
-    <t>XEFYNHPW</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander women</t>
   </si>
   <si>
     <t>EFYWHITT</t>
   </si>
   <si>
-    <t>XEFYWHIT</t>
-  </si>
-  <si>
     <t>White total</t>
   </si>
   <si>
     <t>EFYWHITM</t>
   </si>
   <si>
-    <t>XEFYWHIM</t>
-  </si>
-  <si>
     <t>White men</t>
   </si>
   <si>
     <t>EFYWHITW</t>
   </si>
   <si>
-    <t>XEFYWHIW</t>
-  </si>
-  <si>
     <t>White women</t>
   </si>
   <si>
     <t>EFY2MORT</t>
   </si>
   <si>
-    <t>XEFY2MOT</t>
-  </si>
-  <si>
     <t>Two or more races total</t>
   </si>
   <si>
     <t>EFY2MORM</t>
   </si>
   <si>
-    <t>XEFY2MOM</t>
-  </si>
-  <si>
     <t>Two or more races men</t>
   </si>
   <si>
     <t>EFY2MORW</t>
   </si>
   <si>
-    <t>XEFY2MOW</t>
-  </si>
-  <si>
     <t>Two or more races women</t>
   </si>
   <si>
     <t>EFYUNKNT</t>
   </si>
   <si>
-    <t>XEYUNKNT</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown total</t>
   </si>
   <si>
     <t>EFYUNKNM</t>
   </si>
   <si>
-    <t>XEYUNKNM</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown men</t>
   </si>
   <si>
     <t>EFYUNKNW</t>
   </si>
   <si>
-    <t>XEYUNKNW</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown women</t>
   </si>
   <si>
     <t>EFYNRALT</t>
   </si>
   <si>
-    <t>XEYNRALT</t>
-  </si>
-  <si>
     <t>U.S. Nonresident total</t>
   </si>
   <si>
     <t>EFYNRALM</t>
   </si>
   <si>
-    <t>XEYNRALM</t>
-  </si>
-  <si>
     <t>U.S. Nonresident men</t>
   </si>
   <si>
     <t>EFYNRALW</t>
   </si>
   <si>
-    <t>XEYNRALW</t>
-  </si>
-  <si>
     <t>U.S. Nonresident women</t>
   </si>
   <si>
     <t>EFYGUUN</t>
   </si>
   <si>
-    <t>XEFYGUUN</t>
-  </si>
-  <si>
     <t>Gender unknown</t>
   </si>
   <si>
     <t>EFYGUAN</t>
   </si>
   <si>
-    <t>XEFYGUAN</t>
-  </si>
-  <si>
     <t>Another gender</t>
   </si>
   <si>
     <t>EFYGUTOT</t>
   </si>
   <si>
-    <t>XEFYGUTO</t>
-  </si>
-  <si>
     <t>Total of gender unknown and  another gender</t>
   </si>
   <si>
     <t>EFYGUKN</t>
   </si>
   <si>
-    <t>XEFYGUKN</t>
-  </si>
-  <si>
     <t>Total gender reported as one of the mutually exclusive binary categories (Men/Women)</t>
-  </si>
-  <si>
-    <t>GRTOTLT</t>
-  </si>
-  <si>
-    <t>grtotlt</t>
-  </si>
-  <si>
-    <t>GRTOTLM</t>
-  </si>
-  <si>
-    <t>grtotlm</t>
-  </si>
-  <si>
-    <t>Total men</t>
-  </si>
-  <si>
-    <t>GRTOTLW</t>
-  </si>
-  <si>
-    <t>grtotlw</t>
-  </si>
-  <si>
-    <t>Total women</t>
-  </si>
-  <si>
-    <t>GRAIANT</t>
-  </si>
-  <si>
-    <t>graiant</t>
-  </si>
-  <si>
-    <t>GRAIANM</t>
-  </si>
-  <si>
-    <t>graianm</t>
-  </si>
-  <si>
-    <t>GRAIANW</t>
-  </si>
-  <si>
-    <t>graianw</t>
-  </si>
-  <si>
-    <t>GRASIAT</t>
-  </si>
-  <si>
-    <t>grasiat</t>
-  </si>
-  <si>
-    <t>GRASIAM</t>
-  </si>
-  <si>
-    <t>grasiam</t>
-  </si>
-  <si>
-    <t>GRASIAW</t>
-  </si>
-  <si>
-    <t>grasiaw</t>
-  </si>
-  <si>
-    <t>GRBKAAT</t>
-  </si>
-  <si>
-    <t>grbkaat</t>
-  </si>
-  <si>
-    <t>GRBKAAM</t>
-  </si>
-  <si>
-    <t>grbkaam</t>
-  </si>
-  <si>
-    <t>GRBKAAW</t>
-  </si>
-  <si>
-    <t>grbkaaw</t>
-  </si>
-  <si>
-    <t>GRHISPT</t>
-  </si>
-  <si>
-    <t>grhispt</t>
-  </si>
-  <si>
-    <t>Hispanic total</t>
-  </si>
-  <si>
-    <t>GRHISPM</t>
-  </si>
-  <si>
-    <t>grhispm</t>
-  </si>
-  <si>
-    <t>Hispanic men</t>
-  </si>
-  <si>
-    <t>GRHISPW</t>
-  </si>
-  <si>
-    <t>grhispw</t>
-  </si>
-  <si>
-    <t>Hispanic women</t>
-  </si>
-  <si>
-    <t>GRNHPIT</t>
-  </si>
-  <si>
-    <t>grnhpit</t>
-  </si>
-  <si>
-    <t>GRNHPIM</t>
-  </si>
-  <si>
-    <t>grnhpim</t>
-  </si>
-  <si>
-    <t>GRNHPIW</t>
-  </si>
-  <si>
-    <t>grnhpiw</t>
-  </si>
-  <si>
-    <t>GRWHITT</t>
-  </si>
-  <si>
-    <t>grwhitt</t>
-  </si>
-  <si>
-    <t>GRWHITM</t>
-  </si>
-  <si>
-    <t>grwhitm</t>
-  </si>
-  <si>
-    <t>GRWHITW</t>
-  </si>
-  <si>
-    <t>grwhitw</t>
-  </si>
-  <si>
-    <t>GR2MORT</t>
-  </si>
-  <si>
-    <t>gr2mort</t>
-  </si>
-  <si>
-    <t>GR2MORM</t>
-  </si>
-  <si>
-    <t>gr2morm</t>
-  </si>
-  <si>
-    <t>GR2MORW</t>
-  </si>
-  <si>
-    <t>gr2morw</t>
-  </si>
-  <si>
-    <t>GRUNKNT</t>
-  </si>
-  <si>
-    <t>grunknt</t>
-  </si>
-  <si>
-    <t>GRUNKNM</t>
-  </si>
-  <si>
-    <t>grunknm</t>
-  </si>
-  <si>
-    <t>GRUNKNW</t>
-  </si>
-  <si>
-    <t>grunknw</t>
-  </si>
-  <si>
-    <t>GRNRALT</t>
-  </si>
-  <si>
-    <t>grnralt</t>
-  </si>
-  <si>
-    <t>GRNRALM</t>
-  </si>
-  <si>
-    <t>grnralm</t>
-  </si>
-  <si>
-    <t>GRNRALW</t>
-  </si>
-  <si>
-    <t>grnralw</t>
   </si>
   <si>
     <t>longDescription</t>
@@ -807,159 +508,81 @@
     <t>2</t>
   </si>
   <si>
-    <t>All students, Undergraduate total</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Degree/certificate-seeking total</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Degree/certificate-seeking, First-time</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Other degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Other degree/certificate-seeking, Transfer-ins</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Other degree/certificate-seeking, Continuing</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>All students, Undergraduate, Non-degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>All students, Graduate</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>Full-time students total</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate total</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Degree/certificate-seeking total</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Degree/certificate-seeking, First-time</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Degree/certificate-seeking, Other degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Other degree/certificate-seeking, Transfer-ins</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Other degree/certificate-seeking, Continuing</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t>Full-time students, Undergraduate, Non-degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>Full-time students, Graduate</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>Part-time students total</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate total</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Degree/certificate-seeking total</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Degree/certificate-seeking, First-time</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Degree/certificate-seeking, Other degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Other degree/certificate-seeking, Transfer-ins</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Other degree/certificate-seeking, Continuing</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>Part-time students, Undergraduate, Non-degree/certificate-seeking</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
-    <t>Part-time students, Graduate</t>
-  </si>
-  <si>
     <t>Undergraduate</t>
   </si>
   <si>
@@ -1083,10 +706,91 @@
     <t>TableDescription</t>
   </si>
   <si>
-    <t>"This table contains the unduplicated headcount of students enrolled over the 12-month period (July 1, 2021 - June 30, 2022) by distance education status and level of student."</t>
-  </si>
-  <si>
     <t>effy2022</t>
+  </si>
+  <si>
+    <t>All undergraduate and degree/certificate-seeking students</t>
+  </si>
+  <si>
+    <t>All undergraduate students, including those seeking degrees or certificates for the first time.</t>
+  </si>
+  <si>
+    <t>All undergraduate students</t>
+  </si>
+  <si>
+    <t>All students seeking undergraduate or other degree/certificate programs.</t>
+  </si>
+  <si>
+    <t>All students, including undergraduates, other degree/certificate seekers, and transfer-ins.</t>
+  </si>
+  <si>
+    <t>All students, whether undergraduate, seeking other degrees/certificates, or continuing their education.</t>
+  </si>
+  <si>
+    <t>All students, whether undergraduate or non-degree/certificate-seeking.</t>
+  </si>
+  <si>
+    <t>All students, graduates</t>
+  </si>
+  <si>
+    <t>The total number of full-time students.</t>
+  </si>
+  <si>
+    <t>Total number of undergraduate full-time students.</t>
+  </si>
+  <si>
+    <t>The total number of degree/certificate-seeking full-time undergraduate students.</t>
+  </si>
+  <si>
+    <t>Students who are full-time, seeking an undergraduate degree or certificate, and are first-time attendees.</t>
+  </si>
+  <si>
+    <t>Students who are full-time, seeking an undergraduate degree or certificate, and those pursuing other degrees or certificates.</t>
+  </si>
+  <si>
+    <t>Students who are full-time, seeking undergraduate degrees, pursuing other degrees or certificates, and transferring in.</t>
+  </si>
+  <si>
+    <t>Students who are full-time, pursuing undergraduate, seeking other degrees/certificates, or continuing their education.</t>
+  </si>
+  <si>
+    <t>Students who are full-time, undergraduate, and not seeking a degree or certificate.</t>
+  </si>
+  <si>
+    <t>Graduate full-time students.</t>
+  </si>
+  <si>
+    <t>The total number of part-time students.</t>
+  </si>
+  <si>
+    <t>Students who are part-time, totaling undergraduates.</t>
+  </si>
+  <si>
+    <t>The total number of part-time undergraduate students seeking a degree or certificate.</t>
+  </si>
+  <si>
+    <t>First-time, degree/certificate-seeking undergraduate part-time students.</t>
+  </si>
+  <si>
+    <t>Part-time undergraduate students seeking a degree or certificate, and other degree or certificate seekers.</t>
+  </si>
+  <si>
+    <t>Part-time undergraduate students, seeking other degrees/certificates, transfer-ins.</t>
+  </si>
+  <si>
+    <t>Part-time undergraduate students seeking other degrees or certificates who are continuing their studies.</t>
+  </si>
+  <si>
+    <t>Students who are part-time, undergraduate, and not seeking a degree or certificate.</t>
+  </si>
+  <si>
+    <t>Part-time graduate students.</t>
+  </si>
+  <si>
+    <t>The total number of students.</t>
+  </si>
+  <si>
+    <t>"The table provides a detailed demographic breakdown of students across various institutions, identified by a unique number, categorized by their level (undergraduate or graduate) and degree or certificate-seeking status. It includes a grand total of students and further splits this total by gender (men and women) and various racial or ethnic groups American Indian or Alaska Native, Asian, Black or African American, Hispanic or Latino, Native Hawaiian or Other Pacific Islander, White, and students of two or more races. Each racial or ethnic category is divided into totals for men and women. Additionally, it accounts for students with unknown race or ethnicity, U.S. nonresidents, and those whose gender is unknown or identified as another gender. The total for students reported under mutually exclusive binary gender categories (men or women) is also provided. This comprehensive data helps in understanding the diversity and composition of the student body in terms of both race or ethnicity and gender."</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1120,18 +824,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1166,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,8 +916,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1540,7 +1230,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1552,27 +1242,27 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>322</v>
+        <v>196</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+        <v>198</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,8 +1275,8 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1731,11 +1421,9 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1743,7 +1431,7 @@
         <v>20736</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1754,11 +1442,9 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1766,7 +1452,7 @@
         <v>20741</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1777,11 +1463,9 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1789,7 +1473,7 @@
         <v>24176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1800,11 +1484,9 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1812,7 +1494,7 @@
         <v>24111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1823,11 +1505,9 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1835,7 +1515,7 @@
         <v>24116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1846,11 +1526,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1858,7 +1536,7 @@
         <v>24181</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1869,11 +1547,9 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1881,7 +1557,7 @@
         <v>24121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1892,11 +1568,9 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1904,7 +1578,7 @@
         <v>24126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1915,11 +1589,9 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1927,7 +1599,7 @@
         <v>24186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1938,11 +1610,9 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1950,7 +1620,7 @@
         <v>24131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1961,11 +1631,9 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1973,7 +1641,7 @@
         <v>24136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1984,11 +1652,9 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1996,7 +1662,7 @@
         <v>24171</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -2007,11 +1673,9 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2019,7 +1683,7 @@
         <v>24101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -2030,11 +1694,9 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2042,7 +1704,7 @@
         <v>24106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -2053,11 +1715,9 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2065,7 +1725,7 @@
         <v>24191</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -2076,11 +1736,9 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2088,7 +1746,7 @@
         <v>24141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2099,11 +1757,9 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2111,7 +1767,7 @@
         <v>24146</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -2122,11 +1778,9 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2134,7 +1788,7 @@
         <v>24196</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -2145,11 +1799,9 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2157,7 +1809,7 @@
         <v>24151</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -2168,11 +1820,9 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2180,7 +1830,7 @@
         <v>24156</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -2191,11 +1841,9 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2203,7 +1851,7 @@
         <v>24201</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -2214,11 +1862,9 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2226,7 +1872,7 @@
         <v>24161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -2237,11 +1883,9 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2249,7 +1893,7 @@
         <v>24166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -2260,11 +1904,9 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2272,7 +1914,7 @@
         <v>20776</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -2283,11 +1925,9 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2295,7 +1935,7 @@
         <v>20726</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -2306,11 +1946,9 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2318,7 +1956,7 @@
         <v>20731</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -2329,11 +1967,9 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2341,7 +1977,7 @@
         <v>20746</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -2352,11 +1988,9 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2364,7 +1998,7 @@
         <v>20666</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -2375,11 +2009,9 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2387,7 +2019,7 @@
         <v>20671</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -2398,11 +2030,9 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2410,7 +2040,7 @@
         <v>26296</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -2421,11 +2051,9 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2433,7 +2061,7 @@
         <v>26301</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -2444,11 +2072,9 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2456,7 +2082,7 @@
         <v>26306</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -2467,11 +2093,9 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2479,7 +2103,7 @@
         <v>26311</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -2490,11 +2114,9 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -3373,476 +2995,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7397E9BD-4466-43D6-B3C0-052AF008BEC3}">
-  <dimension ref="A2:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="104.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" t="str">
-        <f>LOWER(A2)</f>
-        <v>grtotlt</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B13" si="0">LOWER(A3)</f>
-        <v>grtotlm</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>grtotlw</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>graiant</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>graianm</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>graianw</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>grasiat</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>grasiam</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>grasiaw</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>grbkaat</v>
-      </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>grbkaam</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>grbkaaw</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" ref="B14:B31" si="1">LOWER(A14)</f>
-        <v>grhispt</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>grhispm</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>grhispw</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>grnhpit</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>grnhpim</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>grnhpiw</v>
-      </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>grwhitt</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>grwhitm</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>grwhitw</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>gr2mort</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>gr2morm</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>gr2morw</v>
-      </c>
-      <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>grunknt</v>
-      </c>
-      <c r="C26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>grunknm</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>grunknw</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="1"/>
-        <v>grnralt</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>grnralm</v>
-      </c>
-      <c r="C30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>grnralw</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
@@ -4056,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="61.2" x14ac:dyDescent="0.2">
@@ -4089,7 +3241,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4100,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4111,7 +3263,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4119,10 +3271,10 @@
         <v>20736</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4130,10 +3282,10 @@
         <v>20741</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4141,10 +3293,10 @@
         <v>24176</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4152,10 +3304,10 @@
         <v>24111</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4163,10 +3315,10 @@
         <v>24116</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4174,10 +3326,10 @@
         <v>24181</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4185,10 +3337,10 @@
         <v>24121</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4196,10 +3348,10 @@
         <v>24126</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4207,10 +3359,10 @@
         <v>24186</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4218,10 +3370,10 @@
         <v>24131</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4229,10 +3381,10 @@
         <v>24136</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4240,10 +3392,10 @@
         <v>24171</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4251,10 +3403,10 @@
         <v>24101</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4262,10 +3414,10 @@
         <v>24106</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4273,10 +3425,10 @@
         <v>24191</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4284,10 +3436,10 @@
         <v>24141</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4295,10 +3447,10 @@
         <v>24146</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4306,10 +3458,10 @@
         <v>24196</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4317,10 +3469,10 @@
         <v>24151</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4328,10 +3480,10 @@
         <v>24156</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4339,10 +3491,10 @@
         <v>24201</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4350,10 +3502,10 @@
         <v>24161</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4361,10 +3513,10 @@
         <v>24166</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30.6" x14ac:dyDescent="0.2">
@@ -4372,10 +3524,10 @@
         <v>20776</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4383,10 +3535,10 @@
         <v>20726</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4394,10 +3546,10 @@
         <v>20731</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.2">
@@ -4405,10 +3557,10 @@
         <v>20746</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.2">
@@ -4416,10 +3568,10 @@
         <v>20666</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.2">
@@ -4427,10 +3579,10 @@
         <v>20671</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="61.2" x14ac:dyDescent="0.2">
@@ -4438,10 +3590,10 @@
         <v>26296</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="91.8" x14ac:dyDescent="0.2">
@@ -4449,10 +3601,10 @@
         <v>26301</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.2">
@@ -4460,10 +3612,10 @@
         <v>26306</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -4471,10 +3623,10 @@
         <v>26311</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4602,13 +3754,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4616,7 +3768,7 @@
     <col min="1" max="1" width="13" style="13" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.109375" style="22" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
@@ -4630,16 +3782,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4">
         <v>6036</v>
@@ -4670,10 +3822,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="E3" s="4">
         <v>5758</v>
@@ -4690,10 +3842,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E4" s="4">
         <v>5754</v>
@@ -4710,10 +3862,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="E5" s="4">
         <v>5583</v>
@@ -4730,10 +3882,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="E6" s="4">
         <v>5747</v>
@@ -4750,10 +3902,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="E7" s="4">
         <v>3570</v>
@@ -4770,10 +3922,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="E8" s="4">
         <v>5730</v>
@@ -4790,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>242</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E9" s="4">
         <v>2883</v>
@@ -4810,10 +3962,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="E10" s="4">
         <v>2059</v>
@@ -4830,10 +3982,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="E11" s="4">
         <v>5981</v>
@@ -4850,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="E12" s="4">
         <v>5697</v>
@@ -4870,10 +4022,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="E13" s="4">
         <v>5694</v>
@@ -4890,10 +4042,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E14" s="4">
         <v>5500</v>
@@ -4910,10 +4062,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E15" s="4">
         <v>5685</v>
@@ -4930,10 +4082,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="E16" s="4">
         <v>3544</v>
@@ -4950,10 +4102,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="E17" s="4">
         <v>5667</v>
@@ -4970,10 +4122,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="E18" s="4">
         <v>2398</v>
@@ -4990,10 +4142,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="E19" s="4">
         <v>2014</v>
@@ -5010,10 +4162,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E20" s="4">
         <v>4442</v>
@@ -5030,10 +4182,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="E21" s="4">
         <v>4178</v>
@@ -5050,10 +4202,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="E22" s="4">
         <v>4149</v>
@@ -5070,10 +4222,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="E23" s="4">
         <v>3652</v>
@@ -5090,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E24" s="4">
         <v>4133</v>
@@ -5110,10 +4262,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E25" s="4">
         <v>2886</v>
@@ -5130,10 +4282,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E26" s="4">
         <v>4115</v>
@@ -5150,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="E27" s="4">
         <v>2775</v>
@@ -5170,10 +4322,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="E28" s="4">
         <v>1891</v>
@@ -5190,10 +4342,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E29" s="4">
         <v>6036</v>
@@ -5210,10 +4362,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="E30" s="4">
         <v>5758</v>
@@ -5230,10 +4382,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="E31" s="4">
         <v>2059</v>
@@ -5250,10 +4402,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4">
         <v>103668</v>
@@ -5270,10 +4422,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="E33" s="4">
         <v>95098</v>
@@ -5290,10 +4442,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="E34" s="4">
         <v>5964</v>
@@ -5310,10 +4462,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>286</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="E35" s="4">
         <v>16459</v>
@@ -10945,7 +10097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -10975,19 +10127,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -11016,7 +10168,7 @@
         <v>223520</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11024,7 +10176,7 @@
         <v>20736</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
         <v>117521</v>
@@ -11042,7 +10194,7 @@
         <v>79798</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11050,7 +10202,7 @@
         <v>20741</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>117521</v>
@@ -11068,7 +10220,7 @@
         <v>143722</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,7 +10228,7 @@
         <v>24176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>117521</v>
@@ -11094,7 +10246,7 @@
         <v>2683</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11102,7 +10254,7 @@
         <v>24111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>117521</v>
@@ -11120,7 +10272,7 @@
         <v>947</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11128,7 +10280,7 @@
         <v>24116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>117521</v>
@@ -11146,7 +10298,7 @@
         <v>1766</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11154,7 +10306,7 @@
         <v>24181</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <v>117521</v>
@@ -11172,7 +10324,7 @@
         <v>15153</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11180,7 +10332,7 @@
         <v>24121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4">
         <v>117521</v>
@@ -11198,7 +10350,7 @@
         <v>7441</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11206,7 +10358,7 @@
         <v>24126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>117521</v>
@@ -11224,7 +10376,7 @@
         <v>7838</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11232,7 +10384,7 @@
         <v>24186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>117521</v>
@@ -11250,7 +10402,7 @@
         <v>33563</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11258,7 +10410,7 @@
         <v>24131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <v>117521</v>
@@ -11276,7 +10428,7 @@
         <v>11582</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11284,7 +10436,7 @@
         <v>24136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4">
         <v>117521</v>
@@ -11302,7 +10454,7 @@
         <v>24304</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11310,7 +10462,7 @@
         <v>24171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>117521</v>
@@ -11328,7 +10480,7 @@
         <v>52906</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11336,7 +10488,7 @@
         <v>24101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4">
         <v>117521</v>
@@ -11354,7 +10506,7 @@
         <v>22215</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11362,7 +10514,7 @@
         <v>24106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4">
         <v>117521</v>
@@ -11380,7 +10532,7 @@
         <v>30691</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11388,7 +10540,7 @@
         <v>24191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <v>117521</v>
@@ -11406,7 +10558,7 @@
         <v>2828</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11414,7 +10566,7 @@
         <v>24141</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4">
         <v>117521</v>
@@ -11432,7 +10584,7 @@
         <v>1167</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11440,7 +10592,7 @@
         <v>24146</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4">
         <v>117521</v>
@@ -11458,7 +10610,7 @@
         <v>1661</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11466,7 +10618,7 @@
         <v>24196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4">
         <v>117521</v>
@@ -11484,7 +10636,7 @@
         <v>128048</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11492,7 +10644,7 @@
         <v>24151</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4">
         <v>117521</v>
@@ -11510,7 +10662,7 @@
         <v>46916</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11518,7 +10670,7 @@
         <v>24156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4">
         <v>117521</v>
@@ -11536,7 +10688,7 @@
         <v>83519</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11544,7 +10696,7 @@
         <v>24201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4">
         <v>117521</v>
@@ -11562,7 +10714,7 @@
         <v>6088</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11570,7 +10722,7 @@
         <v>24161</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4">
         <v>117521</v>
@@ -11588,7 +10740,7 @@
         <v>2466</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11596,7 +10748,7 @@
         <v>24166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4">
         <v>117521</v>
@@ -11614,7 +10766,7 @@
         <v>4111</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11622,7 +10774,7 @@
         <v>20776</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4">
         <v>117521</v>
@@ -11640,7 +10792,7 @@
         <v>69684</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11648,7 +10800,7 @@
         <v>20726</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4">
         <v>117521</v>
@@ -11666,7 +10818,7 @@
         <v>30817</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11674,7 +10826,7 @@
         <v>20731</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4">
         <v>117521</v>
@@ -11692,7 +10844,7 @@
         <v>47405</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11700,7 +10852,7 @@
         <v>20746</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4">
         <v>117521</v>
@@ -11718,7 +10870,7 @@
         <v>20015</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11726,7 +10878,7 @@
         <v>20666</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4">
         <v>117521</v>
@@ -11744,7 +10896,7 @@
         <v>9978</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -11752,7 +10904,7 @@
         <v>20671</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C31" s="4">
         <v>117521</v>
@@ -11770,7 +10922,7 @@
         <v>10347</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -11778,7 +10930,7 @@
         <v>26296</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4">
         <v>13853</v>
@@ -11796,7 +10948,7 @@
         <v>35983</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -11804,7 +10956,7 @@
         <v>26301</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4">
         <v>3029</v>
@@ -11822,7 +10974,7 @@
         <v>1055</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -11830,7 +10982,7 @@
         <v>26306</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4">
         <v>13853</v>
@@ -11848,7 +11000,7 @@
         <v>36441</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11856,7 +11008,7 @@
         <v>26311</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4">
         <v>13853</v>
@@ -11874,7 +11026,7 @@
         <v>209893</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -11883,7 +11035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -11897,87 +11049,87 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -11985,31 +11137,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -12018,6 +11170,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F249D8A6032D8F44A8695BAB1ED804A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="943002b5c5718a80327e0c74ae088035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9cb4ddb6-6161-49c1-81e7-d2838d0e0710" xmlns:ns3="45d1199b-1a3a-4a1d-85f2-919eb909bc88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad23bb0b9d0a66e149f1cd3daa302f8" ns2:_="" ns3:_="">
     <xsd:import namespace="9cb4ddb6-6161-49c1-81e7-d2838d0e0710"/>
@@ -12218,15 +11379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12234,6 +11386,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA0CC62-7551-4ACF-BBC3-D2DE47FE7364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C48C3A-C8C1-4FFD-AE56-7A0EB893247E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12252,14 +11412,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA0CC62-7551-4ACF-BBC3-D2DE47FE7364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3FDC58-3EC8-4DB7-8FEB-90ED4A7E6459}">
   <ds:schemaRefs>
